--- a/www.eia.gov/forecasts/steo/xls/Fig27.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig27.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Energy</t>
@@ -44,7 +44,7 @@
     <t>as % of GDP</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Forecast</t>
@@ -403,16 +403,16 @@
                   <c:v>8.0194880247E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.056402047E-2</c:v>
+                  <c:v>6.0564503439000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.4288008073999999E-2</c:v>
+                  <c:v>5.4315399411999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7765803879000002E-2</c:v>
+                  <c:v>5.7963879846000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.7186503946E-2</c:v>
+                  <c:v>5.7591287111999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,8 +429,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643743856"/>
-        <c:axId val="643723136"/>
+        <c:axId val="422812080"/>
+        <c:axId val="422811520"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -549,11 +549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="643722016"/>
-        <c:axId val="643723696"/>
+        <c:axId val="422810960"/>
+        <c:axId val="422794720"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="643743856"/>
+        <c:axId val="422812080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +570,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643723136"/>
+        <c:crossAx val="422811520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643723136"/>
+        <c:axId val="422811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.12000000000000002"/>
@@ -608,12 +608,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643743856"/>
+        <c:crossAx val="422812080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="643722016"/>
+        <c:axId val="422810960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,12 +623,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="643723696"/>
+        <c:crossAx val="422794720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="643723696"/>
+        <c:axId val="422794720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -645,7 +645,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="643722016"/>
+        <c:crossAx val="422810960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -756,7 +756,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1062,7 +1062,7 @@
             <v>2015</v>
           </cell>
           <cell r="B51">
-            <v>6.056402047E-2</v>
+            <v>6.0564503439000002E-2</v>
           </cell>
         </row>
         <row r="52">
@@ -1070,7 +1070,7 @@
             <v>2016</v>
           </cell>
           <cell r="B52">
-            <v>5.4288008073999999E-2</v>
+            <v>5.4315399411999997E-2</v>
           </cell>
         </row>
         <row r="53">
@@ -1078,7 +1078,7 @@
             <v>2017</v>
           </cell>
           <cell r="B53">
-            <v>5.7765803879000002E-2</v>
+            <v>5.7963879846000002E-2</v>
           </cell>
         </row>
         <row r="54">
@@ -1086,7 +1086,7 @@
             <v>2018</v>
           </cell>
           <cell r="B54">
-            <v>5.7186503946E-2</v>
+            <v>5.7591287111999998E-2</v>
           </cell>
         </row>
         <row r="57">
@@ -1610,7 +1610,7 @@
         <v>2015</v>
       </c>
       <c r="B51" s="7">
-        <v>6.056402047E-2</v>
+        <v>6.0564503439000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>2016</v>
       </c>
       <c r="B52" s="7">
-        <v>5.4288008073999999E-2</v>
+        <v>5.4315399411999997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +1626,7 @@
         <v>2017</v>
       </c>
       <c r="B53" s="7">
-        <v>5.7765803879000002E-2</v>
+        <v>5.7963879846000002E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,7 +1634,7 @@
         <v>2018</v>
       </c>
       <c r="B54" s="8">
-        <v>5.7186503946E-2</v>
+        <v>5.7591287111999998E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
